--- a/MyProject/Luban/Config/Datas/StageInfo.xlsx
+++ b/MyProject/Luban/Config/Datas/StageInfo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lofnh\Documents\GitHub\Draconia\My project\Luban\Config\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lofnh\Documents\GitHub\Draconia\MyProject\Luban\Config\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{841EAFB1-B400-42FA-908E-E3AEE7466D0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B9EEC4D-1A7C-4530-AF91-5DA2CA71D123}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1050" yWindow="7170" windowWidth="28740" windowHeight="9915" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Zhouzhou|Timbuktu</t>
+    <t>Zhouzhou|Rocket|Irene</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -394,15 +394,15 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="K9" sqref="K8:K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="3" max="4" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.84765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -416,7 +416,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -430,12 +430,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.5">
       <c r="B4">
         <v>0</v>
       </c>
